--- a/Output/Falkson_1991 Falkson 1991 OS DTIC parameters.xlsx
+++ b/Output/Falkson_1991 Falkson 1991 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.85084742220134</v>
+        <v>-2.76488446758512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.373118632041817</v>
+        <v>0.2959383108534</v>
       </c>
       <c r="D2" t="n">
         <v>186.102852945755</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191139707450786</v>
+        <v>0.174964827340232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.184639301058125</v>
+        <v>0.114840037842542</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.02696016167979</v>
+        <v>1.98537693246169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.409698626967328</v>
+        <v>0.309598793339315</v>
       </c>
       <c r="D2" t="n">
         <v>185.758837999893</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.968032021305164</v>
+        <v>-0.971956116966394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.161971004464799</v>
+        <v>0.12666401900976</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.12000443797963</v>
+        <v>-2.07102831617382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195730672493874</v>
+        <v>0.21136996067186</v>
       </c>
       <c r="D2" t="n">
         <v>185.655795175303</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.68474374822919</v>
+        <v>1.68163101716978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.298690654707669</v>
+        <v>0.224759741543284</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.61749017114501</v>
+        <v>-2.54933555186575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28894923044443</v>
+        <v>0.249008871886208</v>
       </c>
       <c r="D2" t="n">
         <v>186.712225392775</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0123792653404658</v>
+        <v>0.0102466828139336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0306305115929061</v>
+        <v>0.0195441948683702</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.139217513576757</v>
+        <v>0.0875794838307637</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0563951175806997</v>
+        <v>-0.0198566769345156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0563951175806997</v>
+        <v>-0.0198566769345156</v>
       </c>
       <c r="B3" t="n">
-        <v>0.034091671495233</v>
+        <v>0.0131882342916765</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.167852964938914</v>
+        <v>0.0958514128371598</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0587283707432745</v>
+        <v>-0.0289126257453649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0587283707432745</v>
+        <v>-0.0289126257453649</v>
       </c>
       <c r="B3" t="n">
-        <v>0.026234606287336</v>
+        <v>0.0160437737117049</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0383104961549042</v>
+        <v>0.0446772602744237</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00718671917003027</v>
+        <v>0.00891023701979488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00718671917003027</v>
+        <v>0.00891023701979488</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0892161072096957</v>
+        <v>0.0505169414186039</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0834916577744283</v>
+        <v>0.0620054182780418</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0063487416996439</v>
+        <v>-0.00214364487714964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0063487416996439</v>
+        <v>-0.00214364487714964</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000938228240443155</v>
+        <v>0.000381975553052829</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Falkson_1991 Falkson 1991 OS DTIC parameters.xlsx
+++ b/Output/Falkson_1991 Falkson 1991 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.76488446758512</v>
+        <v>-2.85084742220134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2959383108534</v>
+        <v>0.373118632041817</v>
       </c>
       <c r="D2" t="n">
         <v>186.102852945755</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.174964827340232</v>
+        <v>0.191139707450786</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114840037842542</v>
+        <v>0.184639301058125</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.98537693246169</v>
+        <v>2.02696016167979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.309598793339315</v>
+        <v>0.409698626967328</v>
       </c>
       <c r="D2" t="n">
         <v>185.758837999893</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.971956116966394</v>
+        <v>-0.968032021305164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12666401900976</v>
+        <v>0.161971004464799</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.07102831617382</v>
+        <v>-2.12000443797963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21136996067186</v>
+        <v>0.195730672493874</v>
       </c>
       <c r="D2" t="n">
         <v>185.655795175303</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.68163101716978</v>
+        <v>0.506820763389294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224759741543284</v>
+        <v>0.170291094817232</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.54933555186575</v>
+        <v>-2.61749017114501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.249008871886208</v>
+        <v>0.28894923044443</v>
       </c>
       <c r="D2" t="n">
         <v>186.712225392775</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0102466828139336</v>
+        <v>0.0123792653404658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195441948683702</v>
+        <v>0.0306305115929061</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0875794838307637</v>
+        <v>0.139217513576757</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0198566769345156</v>
+        <v>-0.0563951175806997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0198566769345156</v>
+        <v>-0.0563951175806997</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0131882342916765</v>
+        <v>0.034091671495233</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0958514128371598</v>
+        <v>0.167852964938914</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0289126257453649</v>
+        <v>-0.0587283707432745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0289126257453649</v>
+        <v>-0.0587283707432745</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0160437737117049</v>
+        <v>0.026234606287336</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0446772602744237</v>
+        <v>0.0383104961549042</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00891023701979488</v>
+        <v>-0.00378819639480207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00891023701979488</v>
+        <v>-0.00378819639480207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0505169414186039</v>
+        <v>0.0289990569740515</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0620054182780418</v>
+        <v>0.0834916577744283</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00214364487714964</v>
+        <v>-0.0063487416996439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00214364487714964</v>
+        <v>-0.0063487416996439</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000381975553052829</v>
+        <v>0.000938228240443155</v>
       </c>
     </row>
   </sheetData>
